--- a/dataFiles/chapter08/대학 졸업생 취업률 데이터.xlsx
+++ b/dataFiles/chapter08/대학 졸업생 취업률 데이터.xlsx
@@ -12,11 +12,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t/>
   </si>
   <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
@@ -50,7 +86,43 @@
     <t>2021</t>
   </si>
   <si>
-    <t>취업률</t>
+    <t>고등교육기관전체</t>
+  </si>
+  <si>
+    <t>60.8</t>
+  </si>
+  <si>
+    <t>68.4</t>
+  </si>
+  <si>
+    <t>69.1</t>
+  </si>
+  <si>
+    <t>71.1</t>
+  </si>
+  <si>
+    <t>69.9</t>
+  </si>
+  <si>
+    <t>66.8</t>
+  </si>
+  <si>
+    <t>74.1</t>
+  </si>
+  <si>
+    <t>75.4</t>
+  </si>
+  <si>
+    <t>75.8</t>
+  </si>
+  <si>
+    <t>76.7</t>
+  </si>
+  <si>
+    <t>76.4</t>
+  </si>
+  <si>
+    <t>55.0</t>
   </si>
   <si>
     <t>67.6</t>
@@ -80,64 +152,142 @@
     <t>65.1</t>
   </si>
   <si>
-    <t>성별</t>
-  </si>
-  <si>
-    <t>남자</t>
-  </si>
-  <si>
-    <t>70.7</t>
+    <t>전문대학</t>
+  </si>
+  <si>
+    <t>79.4</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>80.7</t>
+  </si>
+  <si>
+    <t>79.7</t>
+  </si>
+  <si>
+    <t>77.2</t>
+  </si>
+  <si>
+    <t>83.7</t>
+  </si>
+  <si>
+    <t>84.2</t>
+  </si>
+  <si>
+    <t>85.2</t>
+  </si>
+  <si>
+    <t>85.6</t>
+  </si>
+  <si>
+    <t>86.5</t>
+  </si>
+  <si>
+    <t>55.6</t>
+  </si>
+  <si>
+    <t>67.8</t>
+  </si>
+  <si>
+    <t>67.9</t>
+  </si>
+  <si>
+    <t>69.5</t>
   </si>
   <si>
     <t>70.6</t>
   </si>
   <si>
-    <t>69.9</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>67.8</t>
-  </si>
-  <si>
-    <t>69.6</t>
-  </si>
-  <si>
-    <t>69.5</t>
-  </si>
-  <si>
-    <t>여자</t>
+    <t>69.8</t>
+  </si>
+  <si>
+    <t>70.9</t>
+  </si>
+  <si>
+    <t>68.7</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>대학</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>56.7</t>
+  </si>
+  <si>
+    <t>60.7</t>
+  </si>
+  <si>
+    <t>59.2</t>
+  </si>
+  <si>
+    <t>56.4</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>68.9</t>
+  </si>
+  <si>
+    <t>68.2</t>
+  </si>
+  <si>
+    <t>51.9</t>
+  </si>
+  <si>
+    <t>65.5</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>64.8</t>
   </si>
   <si>
     <t>64.5</t>
   </si>
   <si>
-    <t>65.7</t>
-  </si>
-  <si>
-    <t>65.2</t>
-  </si>
-  <si>
-    <t>66.1</t>
-  </si>
-  <si>
-    <t>66.4</t>
-  </si>
-  <si>
-    <t>64.8</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>63.1</t>
+    <t>64.4</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>62.6</t>
+  </si>
+  <si>
+    <t>64.2</t>
+  </si>
+  <si>
+    <t>63.3</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>64.1</t>
   </si>
   <si>
     <t>통계표명:</t>
   </si>
   <si>
-    <t>대학 졸업자 취업률</t>
+    <t>고등교육기관 졸업자 취업률</t>
   </si>
   <si>
     <t>단위:</t>
@@ -149,19 +299,22 @@
     <t>출처:</t>
   </si>
   <si>
-    <t>한국교육개발원,「취업통계연보」</t>
+    <t>한국교육개발원「고등교육기관 졸업자 취업통계연보」</t>
   </si>
   <si>
     <t>주석:</t>
   </si>
   <si>
-    <t>1) 대졸자 취업률 = (취업자÷고등교육기관 졸업자 중 취업대상자) × 100.</t>
-  </si>
-  <si>
-    <t>2) 고등교육기관에는 대학, 전문대학, 산업대학, 교육대학, 각종 학교 등이 포함됨.</t>
-  </si>
-  <si>
-    <t>3) 취업률은 건강보험 및 국세 DB를 연계하여 산출함.</t>
+    <t>* 고등교육기관 전체에는 전문대학, 대학, 산업대학, 교육대학, 각종학교, 기능대학, 일반대학원을 포함</t>
+  </si>
+  <si>
+    <t>* 2010년부터 건강보험DB 연계조사로 바뀌어, 이전 자료와 기준이 다르므로 단순 비교 불가</t>
+  </si>
+  <si>
+    <t>* 2011년부터 다양한 직종의 취업자를 반영하기 위해 12.31. 기준으로 기준일을 변경하고(기존 4.1.) 국세DB와 연계</t>
+  </si>
+  <si>
+    <t>* 2022.12.31.자 취업률은 2023.12월에 발표 예정</t>
   </si>
 </sst>
 </file>
@@ -254,8 +407,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.0" customWidth="true"/>
-    <col min="2" max="2" width="12.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.08203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.140625" customWidth="true" bestFit="true"/>
@@ -267,214 +420,363 @@
     <col min="11" max="11" width="14.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="14.140625" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="3">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="3">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
+      <c r="V5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>